--- a/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
+++ b/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.3.3-us-wipB\InputData\elec\BGSaWC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\endo-learn\BGSaWC\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>BGSaWC BAU Global Solar and Wind Capacities</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>in AC.  Accordingly, we do not apply a DC-to-AC derate factor.</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
+  </si>
+  <si>
+    <t>Global Capacity (MW)</t>
   </si>
 </sst>
 </file>
@@ -1607,17 +1619,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -1625,72 +1637,72 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B5" s="12">
         <v>2017</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B7" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B10" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B12" s="12">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
       <c r="B13" s="15" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -1711,19 +1723,19 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="38" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="38" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1845,7 +1857,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -1991,7 +2003,7 @@
         <v>2072.8400198583167</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -2137,12 +2149,12 @@
         <v>135.57703324231764</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -2234,7 +2246,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
@@ -2326,7 +2338,7 @@
         <v>1977.5444351764106</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A22" s="9" t="s">
         <v>9</v>
       </c>
@@ -2442,24 +2454,24 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="9.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>3</v>
       </c>
@@ -2581,7 +2593,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A12" s="6" t="s">
         <v>11</v>
       </c>
@@ -2727,7 +2739,7 @@
         <v>2396.4039058194176</v>
       </c>
     </row>
-    <row r="13" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.45">
       <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
@@ -2873,7 +2885,7 @@
         <v>217.01252172511622</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>7</v>
       </c>
@@ -2965,7 +2977,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A23" s="9" t="s">
         <v>13</v>
       </c>
@@ -3057,7 +3069,7 @@
         <v>3112.2072054934733</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A24" s="9" t="s">
         <v>14</v>
       </c>
@@ -3149,7 +3161,7 @@
         <v>1387.1410874692133</v>
       </c>
     </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A25" s="9" t="s">
         <v>15</v>
       </c>
@@ -3272,16 +3284,21 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AI14"/>
+  <dimension ref="A1:AI17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="25.3984375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A1" s="12" t="s">
+        <v>45</v>
+      </c>
       <c r="B1">
         <v>2017</v>
       </c>
@@ -3385,7 +3402,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A2" s="16" t="s">
         <v>24</v>
       </c>
@@ -3492,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A3" s="16" t="s">
         <v>25</v>
       </c>
@@ -3599,7 +3616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A4" s="16" t="s">
         <v>26</v>
       </c>
@@ -3706,7 +3723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A5" s="16" t="s">
         <v>28</v>
       </c>
@@ -3813,7 +3830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A6" s="16" t="s">
         <v>27</v>
       </c>
@@ -3954,7 +3971,7 @@
         <v>2072840.0198583168</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A7" s="16" t="s">
         <v>29</v>
       </c>
@@ -4095,7 +4112,7 @@
         <v>2396403.9058194174</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A8" s="16" t="s">
         <v>30</v>
       </c>
@@ -4202,7 +4219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A9" s="16" t="s">
         <v>31</v>
       </c>
@@ -4309,7 +4326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A10" s="16" t="s">
         <v>32</v>
       </c>
@@ -4416,7 +4433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A11" s="16" t="s">
         <v>33</v>
       </c>
@@ -4523,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A12" s="16" t="s">
         <v>34</v>
       </c>
@@ -4630,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A13" s="16" t="s">
         <v>35</v>
       </c>
@@ -4737,7 +4754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.45">
       <c r="A14" s="16" t="s">
         <v>36</v>
       </c>
@@ -4876,6 +4893,327 @@
       <c r="AI14" s="17">
         <f>Wind_Capacity!AN10*10^3</f>
         <v>135577.03324231764</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A16" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.45">
+      <c r="A17" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
+++ b/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-us\InputData\endo-learn\BGSaWC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\endo-learn\BGSaWC\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E98ED65-C697-4EEF-8414-24AAAD099A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22635" windowHeight="11550"/>
+    <workbookView xWindow="16095" yWindow="1035" windowWidth="31950" windowHeight="21345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -17,17 +18,27 @@
     <sheet name="IEA 2017 Wind" sheetId="2" r:id="rId3"/>
     <sheet name="BGSaWC" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>BGSaWC BAU Global Solar and Wind Capacities</t>
   </si>
@@ -74,9 +85,6 @@
     <t>hard coal</t>
   </si>
   <si>
-    <t>natural gas nonpeaker</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
@@ -162,12 +170,18 @@
   </si>
   <si>
     <t>Share of Offshore wind</t>
+  </si>
+  <si>
+    <t>natural gas steam turbine</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
@@ -334,7 +348,7 @@
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Table Header 2" xfId="2"/>
+    <cellStyle name="Table Header 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -374,14 +388,20 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>303408</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>532008</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>151590</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1124,131 +1144,130 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
         <v>2020</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B7" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B7" s="12" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
-      <c r="B8" s="16" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
         <v>2017</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A20" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A22" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A23" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1"/>
-    <hyperlink ref="B7" r:id="rId2"/>
+    <hyperlink ref="B14" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W7" sqref="W7:AG7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B1">
         <v>2019</v>
       </c>
@@ -1259,9 +1278,9 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2">
         <v>582</v>
@@ -1273,9 +1292,9 @@
         <v>4474</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B3">
         <v>624</v>
@@ -1287,7 +1306,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2019</v>
       </c>
@@ -1385,16 +1404,16 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B6">
         <f>TREND($B$2:$C$2,$B$1:$C$1,B5)*1000</f>
         <v>582000</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C6:N6" si="0">TREND($B$2:$C$2,$B$1:$C$1,C5)*1000</f>
+        <f t="shared" ref="C6:M6" si="0">TREND($B$2:$C$2,$B$1:$C$1,C5)*1000</f>
         <v>714272.72727276431</v>
       </c>
       <c r="D6">
@@ -1518,16 +1537,16 @@
         <v>4474000</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7">
         <f>TREND($B$3:$C$3,$B$1:$C$1,B5)*1000</f>
         <v>624000</v>
       </c>
       <c r="C7">
-        <f t="shared" ref="C7:N7" si="2">TREND($B$3:$C$3,$B$1:$C$1,C5)*1000</f>
+        <f t="shared" ref="C7:M7" si="2">TREND($B$3:$C$3,$B$1:$C$1,C5)*1000</f>
         <v>699545.45454544132</v>
       </c>
       <c r="D7">
@@ -1658,26 +1677,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A7:AN22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12:AN12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="13" width="9.265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="38" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="38" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:40" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:40" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>3</v>
       </c>
@@ -1799,7 +1818,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="9" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>4</v>
       </c>
@@ -1945,7 +1964,7 @@
         <v>2072.8400198583167</v>
       </c>
     </row>
-    <row r="10" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>5</v>
       </c>
@@ -2091,9 +2110,9 @@
         <v>135.57703324231764</v>
       </c>
     </row>
-    <row r="12" spans="1:40" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12">
         <f>D10/D9</f>
@@ -2244,12 +2263,12 @@
         <v>6.5406414360711082E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:30" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:30" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>7</v>
       </c>
@@ -2341,7 +2360,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>8</v>
       </c>
@@ -2433,7 +2452,7 @@
         <v>1977.5444351764106</v>
       </c>
     </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>9</v>
       </c>
@@ -2542,24 +2561,22 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AG17"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:AG7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.3984375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="25.42578125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1">
         <v>2019</v>
@@ -2658,7 +2675,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
@@ -2759,212 +2776,212 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A4" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A5" s="14" t="s">
-        <v>18</v>
-      </c>
       <c r="B5">
         <v>0</v>
       </c>
@@ -3062,1311 +3079,1412 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="15">
         <f>'Global Renewables Outlook'!B7*(1-'IEA 2017 Wind'!I12)</f>
         <v>607804.03146737406</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C7" s="15">
         <f>'Global Renewables Outlook'!C7*(1-'IEA 2017 Wind'!J12)</f>
         <v>681371.59811876004</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D7" s="15">
         <f>'Global Renewables Outlook'!D7*(1-'IEA 2017 Wind'!K12)</f>
         <v>754938.35798369965</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E7" s="15">
         <f>'Global Renewables Outlook'!E7*(1-'IEA 2017 Wind'!L12)</f>
         <v>828504.48238323536</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F7" s="15">
         <f>'Global Renewables Outlook'!F7*(1-'IEA 2017 Wind'!M12)</f>
         <v>902070.09733831172</v>
       </c>
-      <c r="G6" s="15">
+      <c r="G7" s="15">
         <f>'Global Renewables Outlook'!G7*(1-'IEA 2017 Wind'!N12)</f>
         <v>975635.29761384299</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H7" s="15">
         <f>'Global Renewables Outlook'!H7*(1-'IEA 2017 Wind'!O12)</f>
         <v>1049200.1558433597</v>
       </c>
-      <c r="I6" s="15">
+      <c r="I7" s="15">
         <f>'Global Renewables Outlook'!I7*(1-'IEA 2017 Wind'!P12)</f>
         <v>1121222.8094770459</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J7" s="15">
         <f>'Global Renewables Outlook'!J7*(1-'IEA 2017 Wind'!Q12)</f>
         <v>1193207.4250556889</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K7" s="15">
         <f>'Global Renewables Outlook'!K7*(1-'IEA 2017 Wind'!R12)</f>
         <v>1265159.4382497929</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L7" s="15">
         <f>'Global Renewables Outlook'!L7*(1-'IEA 2017 Wind'!S12)</f>
         <v>1337083.296137417</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M7" s="15">
         <f>'Global Renewables Outlook'!M7*(1-'IEA 2017 Wind'!T12)</f>
         <v>1408982.6721757923</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N7" s="15">
         <f>'Global Renewables Outlook'!N7*(1-'IEA 2017 Wind'!U12)</f>
         <v>1454354.0181945674</v>
       </c>
-      <c r="O6" s="15">
+      <c r="O7" s="15">
         <f>'Global Renewables Outlook'!O7*(1-'IEA 2017 Wind'!V12)</f>
         <v>1499746.3552090656</v>
       </c>
-      <c r="P6" s="15">
+      <c r="P7" s="15">
         <f>'Global Renewables Outlook'!P7*(1-'IEA 2017 Wind'!W12)</f>
         <v>1545157.4640270318</v>
       </c>
-      <c r="Q6" s="15">
+      <c r="Q7" s="15">
         <f>'Global Renewables Outlook'!Q7*(1-'IEA 2017 Wind'!X12)</f>
         <v>1590585.4276282906</v>
       </c>
-      <c r="R6" s="15">
+      <c r="R7" s="15">
         <f>'Global Renewables Outlook'!R7*(1-'IEA 2017 Wind'!Y12)</f>
         <v>1636028.58142701</v>
       </c>
-      <c r="S6" s="15">
+      <c r="S7" s="15">
         <f>'Global Renewables Outlook'!S7*(1-'IEA 2017 Wind'!Z12)</f>
         <v>1680197.7520111771</v>
       </c>
-      <c r="T6" s="15">
+      <c r="T7" s="15">
         <f>'Global Renewables Outlook'!T7*(1-'IEA 2017 Wind'!AA12)</f>
         <v>1724348.2566176786</v>
       </c>
-      <c r="U6" s="15">
+      <c r="U7" s="15">
         <f>'Global Renewables Outlook'!U7*(1-'IEA 2017 Wind'!AB12)</f>
         <v>1768481.4155999315</v>
       </c>
-      <c r="V6" s="15">
+      <c r="V7" s="15">
         <f>'Global Renewables Outlook'!V7*(1-'IEA 2017 Wind'!AC12)</f>
         <v>1812598.4276515185</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W7" s="15">
         <f>'Global Renewables Outlook'!W7*(1-'IEA 2017 Wind'!AD12)</f>
         <v>1856700.3835031393</v>
       </c>
-      <c r="X6" s="15">
+      <c r="X7" s="15">
         <f>'Global Renewables Outlook'!X7*(1-'IEA 2017 Wind'!AE12)</f>
         <v>1899173.3917596261</v>
       </c>
-      <c r="Y6" s="15">
+      <c r="Y7" s="15">
         <f>'Global Renewables Outlook'!Y7*(1-'IEA 2017 Wind'!AF12)</f>
         <v>1941610.9600069062</v>
       </c>
-      <c r="Z6" s="15">
+      <c r="Z7" s="15">
         <f>'Global Renewables Outlook'!Z7*(1-'IEA 2017 Wind'!AG12)</f>
         <v>1984015.1641012894</v>
       </c>
-      <c r="AA6" s="15">
+      <c r="AA7" s="15">
         <f>'Global Renewables Outlook'!AA7*(1-'IEA 2017 Wind'!AH12)</f>
         <v>2026387.9208827256</v>
       </c>
-      <c r="AB6" s="15">
+      <c r="AB7" s="15">
         <f>'Global Renewables Outlook'!AB7*(1-'IEA 2017 Wind'!AI12)</f>
         <v>2068731.0031150684</v>
       </c>
-      <c r="AC6" s="15">
+      <c r="AC7" s="15">
         <f>'Global Renewables Outlook'!AC7*(1-'IEA 2017 Wind'!AJ12)</f>
         <v>2109832.2301834417</v>
       </c>
-      <c r="AD6" s="15">
+      <c r="AD7" s="15">
         <f>'Global Renewables Outlook'!AD7*(1-'IEA 2017 Wind'!AK12)</f>
         <v>2150994.4197746827</v>
       </c>
-      <c r="AE6" s="15">
+      <c r="AE7" s="15">
         <f>'Global Renewables Outlook'!AE7*(1-'IEA 2017 Wind'!AL12)</f>
         <v>2192212.7308672476</v>
       </c>
-      <c r="AF6" s="15">
+      <c r="AF7" s="15">
         <f>'Global Renewables Outlook'!AF7*(1-'IEA 2017 Wind'!AM12)</f>
         <v>2233482.8217879166</v>
       </c>
-      <c r="AG6" s="15">
+      <c r="AG7" s="15">
         <f>'Global Renewables Outlook'!AG7*(1-'IEA 2017 Wind'!AN12)</f>
         <v>2274800.7874460295</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A7" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="15">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="15">
         <f>'Global Renewables Outlook'!B6</f>
         <v>582000</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C8" s="15">
         <f>'Global Renewables Outlook'!C6</f>
         <v>714272.72727276431</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D8" s="15">
         <f>'Global Renewables Outlook'!D6</f>
         <v>846545.45454547042</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E8" s="15">
         <f>'Global Renewables Outlook'!E6</f>
         <v>978818.18181823473</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F8" s="15">
         <f>'Global Renewables Outlook'!F6</f>
         <v>1111090.9090909408</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G8" s="15">
         <f>'Global Renewables Outlook'!G6</f>
         <v>1243363.6363636469</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H8" s="15">
         <f>'Global Renewables Outlook'!H6</f>
         <v>1375636.3636364113</v>
       </c>
-      <c r="I7" s="15">
+      <c r="I8" s="15">
         <f>'Global Renewables Outlook'!I6</f>
         <v>1507909.0909091174</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J8" s="15">
         <f>'Global Renewables Outlook'!J6</f>
         <v>1640181.8181818235</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K8" s="15">
         <f>'Global Renewables Outlook'!K6</f>
         <v>1772454.5454545878</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L8" s="15">
         <f>'Global Renewables Outlook'!L6</f>
         <v>1904727.2727272939</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M8" s="15">
         <f>'Global Renewables Outlook'!M6</f>
         <v>2037000</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N8" s="15">
         <f>'Global Renewables Outlook'!N6</f>
         <v>2158849.9999999767</v>
       </c>
-      <c r="O7" s="15">
+      <c r="O8" s="15">
         <f>'Global Renewables Outlook'!O6</f>
         <v>2280699.9999999823</v>
       </c>
-      <c r="P7" s="15">
+      <c r="P8" s="15">
         <f>'Global Renewables Outlook'!P6</f>
         <v>2402549.9999999884</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="Q8" s="15">
         <f>'Global Renewables Outlook'!Q6</f>
         <v>2524399.9999999944</v>
       </c>
-      <c r="R7" s="15">
+      <c r="R8" s="15">
         <f>'Global Renewables Outlook'!R6</f>
         <v>2646250</v>
       </c>
-      <c r="S7" s="15">
+      <c r="S8" s="15">
         <f>'Global Renewables Outlook'!S6</f>
         <v>2768099.9999999767</v>
       </c>
-      <c r="T7" s="15">
+      <c r="T8" s="15">
         <f>'Global Renewables Outlook'!T6</f>
         <v>2889949.9999999823</v>
       </c>
-      <c r="U7" s="15">
+      <c r="U8" s="15">
         <f>'Global Renewables Outlook'!U6</f>
         <v>3011799.9999999884</v>
       </c>
-      <c r="V7" s="15">
+      <c r="V8" s="15">
         <f>'Global Renewables Outlook'!V6</f>
         <v>3133649.9999999944</v>
       </c>
-      <c r="W7" s="15">
+      <c r="W8" s="15">
         <f>'Global Renewables Outlook'!W6</f>
         <v>3255500</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X8" s="15">
         <f>'Global Renewables Outlook'!X6</f>
         <v>3377349.9999999767</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="Y8" s="15">
         <f>'Global Renewables Outlook'!Y6</f>
         <v>3499199.9999999823</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="Z8" s="15">
         <f>'Global Renewables Outlook'!Z6</f>
         <v>3621049.9999999884</v>
       </c>
-      <c r="AA7" s="15">
+      <c r="AA8" s="15">
         <f>'Global Renewables Outlook'!AA6</f>
         <v>3742899.9999999944</v>
       </c>
-      <c r="AB7" s="15">
+      <c r="AB8" s="15">
         <f>'Global Renewables Outlook'!AB6</f>
         <v>3864750</v>
       </c>
-      <c r="AC7" s="15">
+      <c r="AC8" s="15">
         <f>'Global Renewables Outlook'!AC6</f>
         <v>3986599.9999999767</v>
       </c>
-      <c r="AD7" s="15">
+      <c r="AD8" s="15">
         <f>'Global Renewables Outlook'!AD6</f>
         <v>4108449.9999999823</v>
       </c>
-      <c r="AE7" s="15">
+      <c r="AE8" s="15">
         <f>'Global Renewables Outlook'!AE6</f>
         <v>4230299.9999999888</v>
       </c>
-      <c r="AF7" s="15">
+      <c r="AF8" s="15">
         <f>'Global Renewables Outlook'!AF6</f>
         <v>4352149.9999999944</v>
       </c>
-      <c r="AG7" s="15">
+      <c r="AG8" s="15">
         <f>'Global Renewables Outlook'!AG6</f>
         <v>4474000</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A8" s="14" t="s">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>0</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A9" s="14" t="s">
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>0</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A10" s="14" t="s">
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A11" s="14" t="s">
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A12" s="14" t="s">
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>0</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A13" s="14" t="s">
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>0</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A14" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14" s="15">
+      <c r="B15" s="15">
         <f>'Global Renewables Outlook'!B7*'IEA 2017 Wind'!I12</f>
         <v>16195.968532625964</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C15" s="15">
         <f>'Global Renewables Outlook'!C7*'IEA 2017 Wind'!J12</f>
         <v>18173.856426681279</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D15" s="15">
         <f>'Global Renewables Outlook'!D7*'IEA 2017 Wind'!K12</f>
         <v>20152.551107212112</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E15" s="15">
         <f>'Global Renewables Outlook'!E7*'IEA 2017 Wind'!L12</f>
         <v>22131.881253117648</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F15" s="15">
         <f>'Global Renewables Outlook'!F7*'IEA 2017 Wind'!M12</f>
         <v>24111.720843511761</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G15" s="15">
         <f>'Global Renewables Outlook'!G7*'IEA 2017 Wind'!N12</f>
         <v>26091.975113421791</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H15" s="15">
         <f>'Global Renewables Outlook'!H7*'IEA 2017 Wind'!O12</f>
         <v>28072.571429375646</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I15" s="15">
         <f>'Global Renewables Outlook'!I7*'IEA 2017 Wind'!P12</f>
         <v>31595.372341130736</v>
       </c>
-      <c r="J14" s="15">
+      <c r="J15" s="15">
         <f>'Global Renewables Outlook'!J7*'IEA 2017 Wind'!Q12</f>
         <v>35156.211307928854</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K15" s="15">
         <f>'Global Renewables Outlook'!K7*'IEA 2017 Wind'!R12</f>
         <v>38749.652659295331</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L15" s="15">
         <f>'Global Renewables Outlook'!L7*'IEA 2017 Wind'!S12</f>
         <v>42371.249317112568</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M15" s="15">
         <f>'Global Renewables Outlook'!M7*'IEA 2017 Wind'!T12</f>
         <v>46017.327824207787</v>
       </c>
-      <c r="N14" s="15">
+      <c r="N15" s="15">
         <f>'Global Renewables Outlook'!N7*'IEA 2017 Wind'!U12</f>
         <v>49595.981805444135</v>
       </c>
-      <c r="O14" s="15">
+      <c r="O15" s="15">
         <f>'Global Renewables Outlook'!O7*'IEA 2017 Wind'!V12</f>
         <v>53153.644790943217</v>
       </c>
-      <c r="P14" s="15">
+      <c r="P15" s="15">
         <f>'Global Renewables Outlook'!P7*'IEA 2017 Wind'!W12</f>
         <v>56692.535972973987</v>
       </c>
-      <c r="Q14" s="15">
+      <c r="Q15" s="15">
         <f>'Global Renewables Outlook'!Q7*'IEA 2017 Wind'!X12</f>
         <v>60214.572371712304</v>
       </c>
-      <c r="R14" s="15">
+      <c r="R15" s="15">
         <f>'Global Renewables Outlook'!R7*'IEA 2017 Wind'!Y12</f>
         <v>63721.418572989911</v>
       </c>
-      <c r="S14" s="15">
+      <c r="S15" s="15">
         <f>'Global Renewables Outlook'!S7*'IEA 2017 Wind'!Z12</f>
         <v>68502.247988834672</v>
       </c>
-      <c r="T14" s="15">
+      <c r="T15" s="15">
         <f>'Global Renewables Outlook'!T7*'IEA 2017 Wind'!AA12</f>
         <v>73301.743382330329</v>
       </c>
-      <c r="U14" s="15">
+      <c r="U15" s="15">
         <f>'Global Renewables Outlook'!U7*'IEA 2017 Wind'!AB12</f>
         <v>78118.584400074353</v>
       </c>
-      <c r="V14" s="15">
+      <c r="V15" s="15">
         <f>'Global Renewables Outlook'!V7*'IEA 2017 Wind'!AC12</f>
         <v>82951.572348484304</v>
       </c>
-      <c r="W14" s="15">
+      <c r="W15" s="15">
         <f>'Global Renewables Outlook'!W7*'IEA 2017 Wind'!AD12</f>
         <v>87799.616496860792</v>
       </c>
-      <c r="X14" s="15">
+      <c r="X15" s="15">
         <f>'Global Renewables Outlook'!X7*'IEA 2017 Wind'!AE12</f>
         <v>94276.608240385627</v>
       </c>
-      <c r="Y14" s="15">
+      <c r="Y15" s="15">
         <f>'Global Renewables Outlook'!Y7*'IEA 2017 Wind'!AF12</f>
         <v>100789.03999310276</v>
       </c>
-      <c r="Z14" s="15">
+      <c r="Z15" s="15">
         <f>'Global Renewables Outlook'!Z7*'IEA 2017 Wind'!AG12</f>
         <v>107334.83589871647</v>
       </c>
-      <c r="AA14" s="15">
+      <c r="AA15" s="15">
         <f>'Global Renewables Outlook'!AA7*'IEA 2017 Wind'!AH12</f>
         <v>113912.07911727707</v>
       </c>
-      <c r="AB14" s="15">
+      <c r="AB15" s="15">
         <f>'Global Renewables Outlook'!AB7*'IEA 2017 Wind'!AI12</f>
         <v>120518.99688493161</v>
       </c>
-      <c r="AC14" s="15">
+      <c r="AC15" s="15">
         <f>'Global Renewables Outlook'!AC7*'IEA 2017 Wind'!AJ12</f>
         <v>128367.76981657001</v>
       </c>
-      <c r="AD14" s="15">
+      <c r="AD15" s="15">
         <f>'Global Renewables Outlook'!AD7*'IEA 2017 Wind'!AK12</f>
         <v>136155.58022532647</v>
       </c>
-      <c r="AE14" s="15">
+      <c r="AE15" s="15">
         <f>'Global Renewables Outlook'!AE7*'IEA 2017 Wind'!AL12</f>
         <v>143887.26913275797</v>
       </c>
-      <c r="AF14" s="15">
+      <c r="AF15" s="15">
         <f>'Global Renewables Outlook'!AF7*'IEA 2017 Wind'!AM12</f>
         <v>151567.17821208638</v>
       </c>
-      <c r="AG14" s="15">
+      <c r="AG15" s="15">
         <f>'Global Renewables Outlook'!AG7*'IEA 2017 Wind'!AN12</f>
         <v>159199.21255397078</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A15" s="11" t="s">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>0</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>0</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A16" s="11" t="s">
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>0</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>0</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.45">
-      <c r="A17" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>0</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
         <v>0</v>
       </c>
     </row>

--- a/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
+++ b/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeff Rissman\CodeRepositories\eps-us\InputData\endo-learn\BGSaWC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\endo-learn\BGSaWC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E98ED65-C697-4EEF-8414-24AAAD099A11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B368F4C1-F4F5-4D99-8DFE-64F503FA4242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16095" yWindow="1035" windowWidth="31950" windowHeight="21345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Global Renewables Outlook" sheetId="6" r:id="rId2"/>
     <sheet name="IEA 2017 Wind" sheetId="2" r:id="rId3"/>
-    <sheet name="BGSaWC" sheetId="4" r:id="rId4"/>
+    <sheet name="SYBGSaWC" sheetId="7" r:id="rId4"/>
+    <sheet name="BGSaWC" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
   <si>
     <t>BGSaWC BAU Global Solar and Wind Capacities</t>
   </si>
@@ -177,6 +178,24 @@
   <si>
     <t>natural gas combined cycle</t>
   </si>
+  <si>
+    <t>hard coal w CCS</t>
+  </si>
+  <si>
+    <t>natural gas combined cycle w CCS</t>
+  </si>
+  <si>
+    <t>biomass w CCS</t>
+  </si>
+  <si>
+    <t>lignite w CCS</t>
+  </si>
+  <si>
+    <t>small modular reactor</t>
+  </si>
+  <si>
+    <t>hydrogen</t>
+  </si>
 </sst>
 </file>
 
@@ -305,22 +324,22 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="2" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
@@ -333,9 +352,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1147,7 +1163,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1188,12 +1206,12 @@
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="16" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2549,8 +2567,6 @@
     <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:AD22">
     <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>MOD(ROW(),2)=0</formula>
     </cfRule>
@@ -2561,893 +2577,1149 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5ECCC06-A3E1-4979-A0C0-9FC1124D52CA}">
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AG18"/>
+  <dimension ref="A1:AF24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.42578125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>30</v>
       </c>
       <c r="B1">
-        <v>2019</v>
-      </c>
-      <c r="C1">
         <v>2020</v>
       </c>
-      <c r="D1">
-        <v>2021</v>
-      </c>
-      <c r="E1">
-        <v>2022</v>
-      </c>
-      <c r="F1">
-        <v>2023</v>
-      </c>
-      <c r="G1">
-        <v>2024</v>
-      </c>
-      <c r="H1">
-        <v>2025</v>
-      </c>
-      <c r="I1">
-        <v>2026</v>
-      </c>
-      <c r="J1">
-        <v>2027</v>
-      </c>
-      <c r="K1">
-        <v>2028</v>
-      </c>
-      <c r="L1">
-        <v>2029</v>
-      </c>
-      <c r="M1">
-        <v>2030</v>
-      </c>
-      <c r="N1">
-        <v>2031</v>
-      </c>
-      <c r="O1">
-        <v>2032</v>
-      </c>
-      <c r="P1">
-        <v>2033</v>
-      </c>
-      <c r="Q1">
-        <v>2034</v>
-      </c>
-      <c r="R1">
-        <v>2035</v>
-      </c>
-      <c r="S1">
-        <v>2036</v>
-      </c>
-      <c r="T1">
-        <v>2037</v>
-      </c>
-      <c r="U1">
-        <v>2038</v>
-      </c>
-      <c r="V1">
-        <v>2039</v>
-      </c>
-      <c r="W1">
-        <v>2040</v>
-      </c>
-      <c r="X1">
-        <v>2041</v>
-      </c>
-      <c r="Y1">
-        <v>2042</v>
-      </c>
-      <c r="Z1">
-        <v>2043</v>
-      </c>
-      <c r="AA1">
-        <v>2044</v>
-      </c>
-      <c r="AB1">
-        <v>2045</v>
-      </c>
-      <c r="AC1">
-        <v>2046</v>
-      </c>
-      <c r="AD1">
-        <v>2047</v>
-      </c>
-      <c r="AE1">
-        <v>2048</v>
-      </c>
-      <c r="AF1">
-        <v>2049</v>
-      </c>
-      <c r="AG1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
         <v>14</v>
       </c>
       <c r="B2">
         <v>0</v>
       </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
-        <v>0</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
         <v>44</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
         <v>45</v>
       </c>
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>0</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
         <v>17</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="15">
-        <f>'Global Renewables Outlook'!B7*(1-'IEA 2017 Wind'!I12)</f>
-        <v>607804.03146737406</v>
-      </c>
-      <c r="C7" s="15">
+      <c r="B7" s="14">
         <f>'Global Renewables Outlook'!C7*(1-'IEA 2017 Wind'!J12)</f>
         <v>681371.59811876004</v>
       </c>
-      <c r="D7" s="15">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
+      <c r="AA7" s="14"/>
+      <c r="AB7" s="14"/>
+      <c r="AC7" s="14"/>
+      <c r="AD7" s="14"/>
+      <c r="AE7" s="14"/>
+      <c r="AF7" s="14"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="14">
+        <f>'Global Renewables Outlook'!C6</f>
+        <v>714272.72727276431</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
+      <c r="AA8" s="14"/>
+      <c r="AB8" s="14"/>
+      <c r="AC8" s="14"/>
+      <c r="AD8" s="14"/>
+      <c r="AE8" s="14"/>
+      <c r="AF8" s="14"/>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="14">
+        <f>'Global Renewables Outlook'!C7*'IEA 2017 Wind'!J12</f>
+        <v>18173.856426681279</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
+      <c r="Q15" s="14"/>
+      <c r="R15" s="14"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="14"/>
+      <c r="X15" s="14"/>
+      <c r="Y15" s="14"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AF15" s="14"/>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:AE24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.42578125" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1">
+        <v>2021</v>
+      </c>
+      <c r="C1">
+        <v>2022</v>
+      </c>
+      <c r="D1">
+        <v>2023</v>
+      </c>
+      <c r="E1">
+        <v>2024</v>
+      </c>
+      <c r="F1">
+        <v>2025</v>
+      </c>
+      <c r="G1">
+        <v>2026</v>
+      </c>
+      <c r="H1">
+        <v>2027</v>
+      </c>
+      <c r="I1">
+        <v>2028</v>
+      </c>
+      <c r="J1">
+        <v>2029</v>
+      </c>
+      <c r="K1">
+        <v>2030</v>
+      </c>
+      <c r="L1">
+        <v>2031</v>
+      </c>
+      <c r="M1">
+        <v>2032</v>
+      </c>
+      <c r="N1">
+        <v>2033</v>
+      </c>
+      <c r="O1">
+        <v>2034</v>
+      </c>
+      <c r="P1">
+        <v>2035</v>
+      </c>
+      <c r="Q1">
+        <v>2036</v>
+      </c>
+      <c r="R1">
+        <v>2037</v>
+      </c>
+      <c r="S1">
+        <v>2038</v>
+      </c>
+      <c r="T1">
+        <v>2039</v>
+      </c>
+      <c r="U1">
+        <v>2040</v>
+      </c>
+      <c r="V1">
+        <v>2041</v>
+      </c>
+      <c r="W1">
+        <v>2042</v>
+      </c>
+      <c r="X1">
+        <v>2043</v>
+      </c>
+      <c r="Y1">
+        <v>2044</v>
+      </c>
+      <c r="Z1">
+        <v>2045</v>
+      </c>
+      <c r="AA1">
+        <v>2046</v>
+      </c>
+      <c r="AB1">
+        <v>2047</v>
+      </c>
+      <c r="AC1">
+        <v>2048</v>
+      </c>
+      <c r="AD1">
+        <v>2049</v>
+      </c>
+      <c r="AE1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="14">
         <f>'Global Renewables Outlook'!D7*(1-'IEA 2017 Wind'!K12)</f>
         <v>754938.35798369965</v>
       </c>
-      <c r="E7" s="15">
+      <c r="C7" s="14">
         <f>'Global Renewables Outlook'!E7*(1-'IEA 2017 Wind'!L12)</f>
         <v>828504.48238323536</v>
       </c>
-      <c r="F7" s="15">
+      <c r="D7" s="14">
         <f>'Global Renewables Outlook'!F7*(1-'IEA 2017 Wind'!M12)</f>
         <v>902070.09733831172</v>
       </c>
-      <c r="G7" s="15">
+      <c r="E7" s="14">
         <f>'Global Renewables Outlook'!G7*(1-'IEA 2017 Wind'!N12)</f>
         <v>975635.29761384299</v>
       </c>
-      <c r="H7" s="15">
+      <c r="F7" s="14">
         <f>'Global Renewables Outlook'!H7*(1-'IEA 2017 Wind'!O12)</f>
         <v>1049200.1558433597</v>
       </c>
-      <c r="I7" s="15">
+      <c r="G7" s="14">
         <f>'Global Renewables Outlook'!I7*(1-'IEA 2017 Wind'!P12)</f>
         <v>1121222.8094770459</v>
       </c>
-      <c r="J7" s="15">
+      <c r="H7" s="14">
         <f>'Global Renewables Outlook'!J7*(1-'IEA 2017 Wind'!Q12)</f>
         <v>1193207.4250556889</v>
       </c>
-      <c r="K7" s="15">
+      <c r="I7" s="14">
         <f>'Global Renewables Outlook'!K7*(1-'IEA 2017 Wind'!R12)</f>
         <v>1265159.4382497929</v>
       </c>
-      <c r="L7" s="15">
+      <c r="J7" s="14">
         <f>'Global Renewables Outlook'!L7*(1-'IEA 2017 Wind'!S12)</f>
         <v>1337083.296137417</v>
       </c>
-      <c r="M7" s="15">
+      <c r="K7" s="14">
         <f>'Global Renewables Outlook'!M7*(1-'IEA 2017 Wind'!T12)</f>
         <v>1408982.6721757923</v>
       </c>
-      <c r="N7" s="15">
+      <c r="L7" s="14">
         <f>'Global Renewables Outlook'!N7*(1-'IEA 2017 Wind'!U12)</f>
         <v>1454354.0181945674</v>
       </c>
-      <c r="O7" s="15">
+      <c r="M7" s="14">
         <f>'Global Renewables Outlook'!O7*(1-'IEA 2017 Wind'!V12)</f>
         <v>1499746.3552090656</v>
       </c>
-      <c r="P7" s="15">
+      <c r="N7" s="14">
         <f>'Global Renewables Outlook'!P7*(1-'IEA 2017 Wind'!W12)</f>
         <v>1545157.4640270318</v>
       </c>
-      <c r="Q7" s="15">
+      <c r="O7" s="14">
         <f>'Global Renewables Outlook'!Q7*(1-'IEA 2017 Wind'!X12)</f>
         <v>1590585.4276282906</v>
       </c>
-      <c r="R7" s="15">
+      <c r="P7" s="14">
         <f>'Global Renewables Outlook'!R7*(1-'IEA 2017 Wind'!Y12)</f>
         <v>1636028.58142701</v>
       </c>
-      <c r="S7" s="15">
+      <c r="Q7" s="14">
         <f>'Global Renewables Outlook'!S7*(1-'IEA 2017 Wind'!Z12)</f>
         <v>1680197.7520111771</v>
       </c>
-      <c r="T7" s="15">
+      <c r="R7" s="14">
         <f>'Global Renewables Outlook'!T7*(1-'IEA 2017 Wind'!AA12)</f>
         <v>1724348.2566176786</v>
       </c>
-      <c r="U7" s="15">
+      <c r="S7" s="14">
         <f>'Global Renewables Outlook'!U7*(1-'IEA 2017 Wind'!AB12)</f>
         <v>1768481.4155999315</v>
       </c>
-      <c r="V7" s="15">
+      <c r="T7" s="14">
         <f>'Global Renewables Outlook'!V7*(1-'IEA 2017 Wind'!AC12)</f>
         <v>1812598.4276515185</v>
       </c>
-      <c r="W7" s="15">
+      <c r="U7" s="14">
         <f>'Global Renewables Outlook'!W7*(1-'IEA 2017 Wind'!AD12)</f>
         <v>1856700.3835031393</v>
       </c>
-      <c r="X7" s="15">
+      <c r="V7" s="14">
         <f>'Global Renewables Outlook'!X7*(1-'IEA 2017 Wind'!AE12)</f>
         <v>1899173.3917596261</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="W7" s="14">
         <f>'Global Renewables Outlook'!Y7*(1-'IEA 2017 Wind'!AF12)</f>
         <v>1941610.9600069062</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="X7" s="14">
         <f>'Global Renewables Outlook'!Z7*(1-'IEA 2017 Wind'!AG12)</f>
         <v>1984015.1641012894</v>
       </c>
-      <c r="AA7" s="15">
+      <c r="Y7" s="14">
         <f>'Global Renewables Outlook'!AA7*(1-'IEA 2017 Wind'!AH12)</f>
         <v>2026387.9208827256</v>
       </c>
-      <c r="AB7" s="15">
+      <c r="Z7" s="14">
         <f>'Global Renewables Outlook'!AB7*(1-'IEA 2017 Wind'!AI12)</f>
         <v>2068731.0031150684</v>
       </c>
-      <c r="AC7" s="15">
+      <c r="AA7" s="14">
         <f>'Global Renewables Outlook'!AC7*(1-'IEA 2017 Wind'!AJ12)</f>
         <v>2109832.2301834417</v>
       </c>
-      <c r="AD7" s="15">
+      <c r="AB7" s="14">
         <f>'Global Renewables Outlook'!AD7*(1-'IEA 2017 Wind'!AK12)</f>
         <v>2150994.4197746827</v>
       </c>
-      <c r="AE7" s="15">
+      <c r="AC7" s="14">
         <f>'Global Renewables Outlook'!AE7*(1-'IEA 2017 Wind'!AL12)</f>
         <v>2192212.7308672476</v>
       </c>
-      <c r="AF7" s="15">
+      <c r="AD7" s="14">
         <f>'Global Renewables Outlook'!AF7*(1-'IEA 2017 Wind'!AM12)</f>
         <v>2233482.8217879166</v>
       </c>
-      <c r="AG7" s="15">
+      <c r="AE7" s="14">
         <f>'Global Renewables Outlook'!AG7*(1-'IEA 2017 Wind'!AN12)</f>
         <v>2274800.7874460295</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="15">
-        <f>'Global Renewables Outlook'!B6</f>
-        <v>582000</v>
-      </c>
-      <c r="C8" s="15">
-        <f>'Global Renewables Outlook'!C6</f>
-        <v>714272.72727276431</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="B8" s="14">
         <f>'Global Renewables Outlook'!D6</f>
         <v>846545.45454547042</v>
       </c>
-      <c r="E8" s="15">
+      <c r="C8" s="14">
         <f>'Global Renewables Outlook'!E6</f>
         <v>978818.18181823473</v>
       </c>
-      <c r="F8" s="15">
+      <c r="D8" s="14">
         <f>'Global Renewables Outlook'!F6</f>
         <v>1111090.9090909408</v>
       </c>
-      <c r="G8" s="15">
+      <c r="E8" s="14">
         <f>'Global Renewables Outlook'!G6</f>
         <v>1243363.6363636469</v>
       </c>
-      <c r="H8" s="15">
+      <c r="F8" s="14">
         <f>'Global Renewables Outlook'!H6</f>
         <v>1375636.3636364113</v>
       </c>
-      <c r="I8" s="15">
+      <c r="G8" s="14">
         <f>'Global Renewables Outlook'!I6</f>
         <v>1507909.0909091174</v>
       </c>
-      <c r="J8" s="15">
+      <c r="H8" s="14">
         <f>'Global Renewables Outlook'!J6</f>
         <v>1640181.8181818235</v>
       </c>
-      <c r="K8" s="15">
+      <c r="I8" s="14">
         <f>'Global Renewables Outlook'!K6</f>
         <v>1772454.5454545878</v>
       </c>
-      <c r="L8" s="15">
+      <c r="J8" s="14">
         <f>'Global Renewables Outlook'!L6</f>
         <v>1904727.2727272939</v>
       </c>
-      <c r="M8" s="15">
+      <c r="K8" s="14">
         <f>'Global Renewables Outlook'!M6</f>
         <v>2037000</v>
       </c>
-      <c r="N8" s="15">
+      <c r="L8" s="14">
         <f>'Global Renewables Outlook'!N6</f>
         <v>2158849.9999999767</v>
       </c>
-      <c r="O8" s="15">
+      <c r="M8" s="14">
         <f>'Global Renewables Outlook'!O6</f>
         <v>2280699.9999999823</v>
       </c>
-      <c r="P8" s="15">
+      <c r="N8" s="14">
         <f>'Global Renewables Outlook'!P6</f>
         <v>2402549.9999999884</v>
       </c>
-      <c r="Q8" s="15">
+      <c r="O8" s="14">
         <f>'Global Renewables Outlook'!Q6</f>
         <v>2524399.9999999944</v>
       </c>
-      <c r="R8" s="15">
+      <c r="P8" s="14">
         <f>'Global Renewables Outlook'!R6</f>
         <v>2646250</v>
       </c>
-      <c r="S8" s="15">
+      <c r="Q8" s="14">
         <f>'Global Renewables Outlook'!S6</f>
         <v>2768099.9999999767</v>
       </c>
-      <c r="T8" s="15">
+      <c r="R8" s="14">
         <f>'Global Renewables Outlook'!T6</f>
         <v>2889949.9999999823</v>
       </c>
-      <c r="U8" s="15">
+      <c r="S8" s="14">
         <f>'Global Renewables Outlook'!U6</f>
         <v>3011799.9999999884</v>
       </c>
-      <c r="V8" s="15">
+      <c r="T8" s="14">
         <f>'Global Renewables Outlook'!V6</f>
         <v>3133649.9999999944</v>
       </c>
-      <c r="W8" s="15">
+      <c r="U8" s="14">
         <f>'Global Renewables Outlook'!W6</f>
         <v>3255500</v>
       </c>
-      <c r="X8" s="15">
+      <c r="V8" s="14">
         <f>'Global Renewables Outlook'!X6</f>
         <v>3377349.9999999767</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="W8" s="14">
         <f>'Global Renewables Outlook'!Y6</f>
         <v>3499199.9999999823</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="X8" s="14">
         <f>'Global Renewables Outlook'!Z6</f>
         <v>3621049.9999999884</v>
       </c>
-      <c r="AA8" s="15">
+      <c r="Y8" s="14">
         <f>'Global Renewables Outlook'!AA6</f>
         <v>3742899.9999999944</v>
       </c>
-      <c r="AB8" s="15">
+      <c r="Z8" s="14">
         <f>'Global Renewables Outlook'!AB6</f>
         <v>3864750</v>
       </c>
-      <c r="AC8" s="15">
+      <c r="AA8" s="14">
         <f>'Global Renewables Outlook'!AC6</f>
         <v>3986599.9999999767</v>
       </c>
-      <c r="AD8" s="15">
+      <c r="AB8" s="14">
         <f>'Global Renewables Outlook'!AD6</f>
         <v>4108449.9999999823</v>
       </c>
-      <c r="AE8" s="15">
+      <c r="AC8" s="14">
         <f>'Global Renewables Outlook'!AE6</f>
         <v>4230299.9999999888</v>
       </c>
-      <c r="AF8" s="15">
+      <c r="AD8" s="14">
         <f>'Global Renewables Outlook'!AF6</f>
         <v>4352149.9999999944</v>
       </c>
-      <c r="AG8" s="15">
+      <c r="AE8" s="14">
         <f>'Global Renewables Outlook'!AG6</f>
         <v>4474000</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B9">
@@ -3540,15 +3812,9 @@
       <c r="AE9">
         <v>0</v>
       </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>20</v>
       </c>
       <c r="B10">
@@ -3641,15 +3907,9 @@
       <c r="AE10">
         <v>0</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>21</v>
       </c>
       <c r="B11">
@@ -3742,15 +4002,9 @@
       <c r="AE11">
         <v>0</v>
       </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B12">
@@ -3843,15 +4097,9 @@
       <c r="AE12">
         <v>0</v>
       </c>
-      <c r="AF12">
-        <v>0</v>
-      </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>23</v>
       </c>
       <c r="B13">
@@ -3944,15 +4192,9 @@
       <c r="AE13">
         <v>0</v>
       </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
         <v>24</v>
       </c>
       <c r="B14">
@@ -4045,147 +4287,133 @@
       <c r="AE14">
         <v>0</v>
       </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="15">
-        <f>'Global Renewables Outlook'!B7*'IEA 2017 Wind'!I12</f>
-        <v>16195.968532625964</v>
-      </c>
-      <c r="C15" s="15">
-        <f>'Global Renewables Outlook'!C7*'IEA 2017 Wind'!J12</f>
-        <v>18173.856426681279</v>
-      </c>
-      <c r="D15" s="15">
+      <c r="B15" s="14">
         <f>'Global Renewables Outlook'!D7*'IEA 2017 Wind'!K12</f>
         <v>20152.551107212112</v>
       </c>
-      <c r="E15" s="15">
+      <c r="C15" s="14">
         <f>'Global Renewables Outlook'!E7*'IEA 2017 Wind'!L12</f>
         <v>22131.881253117648</v>
       </c>
-      <c r="F15" s="15">
+      <c r="D15" s="14">
         <f>'Global Renewables Outlook'!F7*'IEA 2017 Wind'!M12</f>
         <v>24111.720843511761</v>
       </c>
-      <c r="G15" s="15">
+      <c r="E15" s="14">
         <f>'Global Renewables Outlook'!G7*'IEA 2017 Wind'!N12</f>
         <v>26091.975113421791</v>
       </c>
-      <c r="H15" s="15">
+      <c r="F15" s="14">
         <f>'Global Renewables Outlook'!H7*'IEA 2017 Wind'!O12</f>
         <v>28072.571429375646</v>
       </c>
-      <c r="I15" s="15">
+      <c r="G15" s="14">
         <f>'Global Renewables Outlook'!I7*'IEA 2017 Wind'!P12</f>
         <v>31595.372341130736</v>
       </c>
-      <c r="J15" s="15">
+      <c r="H15" s="14">
         <f>'Global Renewables Outlook'!J7*'IEA 2017 Wind'!Q12</f>
         <v>35156.211307928854</v>
       </c>
-      <c r="K15" s="15">
+      <c r="I15" s="14">
         <f>'Global Renewables Outlook'!K7*'IEA 2017 Wind'!R12</f>
         <v>38749.652659295331</v>
       </c>
-      <c r="L15" s="15">
+      <c r="J15" s="14">
         <f>'Global Renewables Outlook'!L7*'IEA 2017 Wind'!S12</f>
         <v>42371.249317112568</v>
       </c>
-      <c r="M15" s="15">
+      <c r="K15" s="14">
         <f>'Global Renewables Outlook'!M7*'IEA 2017 Wind'!T12</f>
         <v>46017.327824207787</v>
       </c>
-      <c r="N15" s="15">
+      <c r="L15" s="14">
         <f>'Global Renewables Outlook'!N7*'IEA 2017 Wind'!U12</f>
         <v>49595.981805444135</v>
       </c>
-      <c r="O15" s="15">
+      <c r="M15" s="14">
         <f>'Global Renewables Outlook'!O7*'IEA 2017 Wind'!V12</f>
         <v>53153.644790943217</v>
       </c>
-      <c r="P15" s="15">
+      <c r="N15" s="14">
         <f>'Global Renewables Outlook'!P7*'IEA 2017 Wind'!W12</f>
         <v>56692.535972973987</v>
       </c>
-      <c r="Q15" s="15">
+      <c r="O15" s="14">
         <f>'Global Renewables Outlook'!Q7*'IEA 2017 Wind'!X12</f>
         <v>60214.572371712304</v>
       </c>
-      <c r="R15" s="15">
+      <c r="P15" s="14">
         <f>'Global Renewables Outlook'!R7*'IEA 2017 Wind'!Y12</f>
         <v>63721.418572989911</v>
       </c>
-      <c r="S15" s="15">
+      <c r="Q15" s="14">
         <f>'Global Renewables Outlook'!S7*'IEA 2017 Wind'!Z12</f>
         <v>68502.247988834672</v>
       </c>
-      <c r="T15" s="15">
+      <c r="R15" s="14">
         <f>'Global Renewables Outlook'!T7*'IEA 2017 Wind'!AA12</f>
         <v>73301.743382330329</v>
       </c>
-      <c r="U15" s="15">
+      <c r="S15" s="14">
         <f>'Global Renewables Outlook'!U7*'IEA 2017 Wind'!AB12</f>
         <v>78118.584400074353</v>
       </c>
-      <c r="V15" s="15">
+      <c r="T15" s="14">
         <f>'Global Renewables Outlook'!V7*'IEA 2017 Wind'!AC12</f>
         <v>82951.572348484304</v>
       </c>
-      <c r="W15" s="15">
+      <c r="U15" s="14">
         <f>'Global Renewables Outlook'!W7*'IEA 2017 Wind'!AD12</f>
         <v>87799.616496860792</v>
       </c>
-      <c r="X15" s="15">
+      <c r="V15" s="14">
         <f>'Global Renewables Outlook'!X7*'IEA 2017 Wind'!AE12</f>
         <v>94276.608240385627</v>
       </c>
-      <c r="Y15" s="15">
+      <c r="W15" s="14">
         <f>'Global Renewables Outlook'!Y7*'IEA 2017 Wind'!AF12</f>
         <v>100789.03999310276</v>
       </c>
-      <c r="Z15" s="15">
+      <c r="X15" s="14">
         <f>'Global Renewables Outlook'!Z7*'IEA 2017 Wind'!AG12</f>
         <v>107334.83589871647</v>
       </c>
-      <c r="AA15" s="15">
+      <c r="Y15" s="14">
         <f>'Global Renewables Outlook'!AA7*'IEA 2017 Wind'!AH12</f>
         <v>113912.07911727707</v>
       </c>
-      <c r="AB15" s="15">
+      <c r="Z15" s="14">
         <f>'Global Renewables Outlook'!AB7*'IEA 2017 Wind'!AI12</f>
         <v>120518.99688493161</v>
       </c>
-      <c r="AC15" s="15">
+      <c r="AA15" s="14">
         <f>'Global Renewables Outlook'!AC7*'IEA 2017 Wind'!AJ12</f>
         <v>128367.76981657001</v>
       </c>
-      <c r="AD15" s="15">
+      <c r="AB15" s="14">
         <f>'Global Renewables Outlook'!AD7*'IEA 2017 Wind'!AK12</f>
         <v>136155.58022532647</v>
       </c>
-      <c r="AE15" s="15">
+      <c r="AC15" s="14">
         <f>'Global Renewables Outlook'!AE7*'IEA 2017 Wind'!AL12</f>
         <v>143887.26913275797</v>
       </c>
-      <c r="AF15" s="15">
+      <c r="AD15" s="14">
         <f>'Global Renewables Outlook'!AF7*'IEA 2017 Wind'!AM12</f>
         <v>151567.17821208638</v>
       </c>
-      <c r="AG15" s="15">
+      <c r="AE15" s="14">
         <f>'Global Renewables Outlook'!AG7*'IEA 2017 Wind'!AN12</f>
         <v>159199.21255397078</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
@@ -4279,14 +4507,8 @@
       <c r="AE16">
         <v>0</v>
       </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>28</v>
       </c>
@@ -4380,14 +4602,8 @@
       <c r="AE17">
         <v>0</v>
       </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>29</v>
       </c>
@@ -4481,10 +4697,574 @@
       <c r="AE18">
         <v>0</v>
       </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>0</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>0</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>0</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>0</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
         <v>0</v>
       </c>
     </row>

--- a/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
+++ b/InputData/endo-learn/BGSaWC/BAU Global Solar and Wind Cap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\endo-learn\BGSaWC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B368F4C1-F4F5-4D99-8DFE-64F503FA4242}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C2C575-518F-4655-8799-2DDC3F3A1CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <t>BGSaWC BAU Global Solar and Wind Capacities</t>
   </si>
@@ -194,7 +194,10 @@
     <t>small modular reactor</t>
   </si>
   <si>
-    <t>hydrogen</t>
+    <t>hydrogen combustion turbine</t>
+  </si>
+  <si>
+    <t>hydrogen combined cycle</t>
   </si>
 </sst>
 </file>
@@ -206,7 +209,7 @@
     <numFmt numFmtId="164" formatCode="#\ ##0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,6 +274,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -324,7 +334,7 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -358,6 +368,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2581,10 +2594,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AF24"/>
+  <dimension ref="A1:AF25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2870,10 +2883,18 @@
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
         <v>0</v>
       </c>
     </row>
@@ -2887,10 +2908,10 @@
   <sheetPr>
     <tabColor theme="8" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:AE24"/>
+  <dimension ref="A1:AE25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:AE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5174,7 +5195,7 @@
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="A24" s="17" t="s">
         <v>51</v>
       </c>
       <c r="B24">
@@ -5265,6 +5286,101 @@
         <v>0</v>
       </c>
       <c r="AE24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>0</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
         <v>0</v>
       </c>
     </row>
